--- a/PS10/PS10_prob2.xlsx
+++ b/PS10/PS10_prob2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20376"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB45713-D3A9-444B-B3DA-E22E07287C7C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F61BB73-5B4E-44E0-895E-4ED0C33E4DA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>M</t>
   </si>
@@ -85,7 +85,10 @@
     <t>qr</t>
   </si>
   <si>
-    <t>I SI</t>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>ktst</t>
   </si>
 </sst>
 </file>
@@ -404,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,13 +461,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.9350000000000001</v>
+        <f>1.935/10000</f>
+        <v>1.9350000000000001E-4</v>
       </c>
       <c r="C3">
-        <v>13.997999999999999</v>
+        <f>13.998/10000</f>
+        <v>1.3997999999999999E-3</v>
       </c>
       <c r="D3">
-        <v>73.2</v>
+        <f>73.2/10000</f>
+        <v>7.3200000000000001E-3</v>
       </c>
       <c r="G3" s="1">
         <v>6.6260700399999999E-34</v>
@@ -481,117 +487,121 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2733</v>
+      </c>
+      <c r="C5">
+        <v>2330</v>
       </c>
       <c r="D5">
-        <v>221</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>2733</v>
-      </c>
-      <c r="C6">
-        <v>2330</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>3130</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>2102</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>1252</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>1170</v>
+        <v>564</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11">
         <v>401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <f>((2*PI()*B2*$H$3*$K$3)/($G$3^2))^(2/3)</f>
+        <v>8.3758694146716043E+31</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <f>((2*PI()*C2*$H$3*$K$3)/($G$3^2))^(2/3)</f>
+        <v>1.3959972431548975E+32</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <f>((2*PI()*D2*$H$3*$K$3)/($G$3^2))^(2/3)</f>
+        <v>1.8005006002457298E+32</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <f>((2*PI()*B2*$H$3*$K$3)/($G$3^2))^(2/3)</f>
-        <v>8.3758694146716043E+31</v>
-      </c>
-      <c r="C14">
-        <f>((2*PI()*C2*$H$3*$K$3)/($G$3^2))^(2/3)</f>
-        <v>1.3959972431548975E+32</v>
-      </c>
-      <c r="D14">
-        <f>((2*PI()*D2*$H$3*$K$3)/($G$3^2))^(2/3)</f>
-        <v>1.8005006002457298E+32</v>
+        <v>19</v>
+      </c>
+      <c r="B14" s="1">
+        <f>1/(1-EXP((-$G$3*$M$3*B5)/($H$3*$K$3)))</f>
+        <v>8.089489065638066</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" ref="C14:D14" si="0">1/(1-EXP((-$G$3*$M$3*C5)/($H$3*$K$3)))</f>
+        <v>9.3986559538874257</v>
+      </c>
+      <c r="D14" s="1">
+        <f>1/(1-EXP((-$G$3*$M$3*D5)/($H$3*$K$3)))</f>
+        <v>7.1298505785395205</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="1">
-        <f>1/(1-EXP((-$G$3*$M$3*B6)/($H$3*$K$3)))</f>
-        <v>8.089489065638066</v>
-      </c>
-      <c r="C15" s="1">
-        <f t="shared" ref="C15:D15" si="0">1/(1-EXP((-$G$3*$M$3*C6)/($H$3*$K$3)))</f>
-        <v>9.3986559538874257</v>
-      </c>
       <c r="D15" s="1">
-        <f t="shared" si="0"/>
-        <v>7.1298505785395205</v>
+        <f>1/(1-EXP((-$G$3*$M$3*D6)/($H$3*$K$3)))</f>
+        <v>10.361943040371679</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -600,7 +610,7 @@
       </c>
       <c r="D16" s="1">
         <f t="shared" ref="D16" si="1">1/(1-EXP((-$G$3*$M$3*D7)/($H$3*$K$3)))</f>
-        <v>10.361943040371679</v>
+        <v>17.048192133213107</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -609,7 +619,7 @@
       </c>
       <c r="D17" s="1">
         <f t="shared" ref="D17" si="2">1/(1-EXP((-$G$3*$M$3*D8)/($H$3*$K$3)))</f>
-        <v>17.048192133213107</v>
+        <v>18.207297071208604</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -618,7 +628,7 @@
       </c>
       <c r="D18" s="1">
         <f t="shared" ref="D18" si="3">1/(1-EXP((-$G$3*$M$3*D9)/($H$3*$K$3)))</f>
-        <v>18.207297071208604</v>
+        <v>37.225726981598186</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -626,51 +636,76 @@
         <v>19</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" ref="D19" si="4">1/(1-EXP((-$G$3*$M$3*D10)/($H$3*$K$3)))</f>
-        <v>37.225726981598186</v>
+        <f>1/(1-EXP((-$G$3*$M$3*D10)/($H$3*$K$3)))</f>
+        <v>52.152561507502</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="B20" s="1">
+        <f>B14</f>
+        <v>8.089489065638066</v>
+      </c>
+      <c r="C20" s="1">
+        <f>C14</f>
+        <v>9.3986559538874257</v>
       </c>
       <c r="D20" s="1">
-        <f>1/(1-EXP((-$G$3*$M$3*D11)/($H$3*$K$3)))</f>
-        <v>52.152561507502</v>
+        <f>PRODUCT(D14:D19)</f>
+        <v>44520934.35860578</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1">
-        <f>B15</f>
-        <v>8.089489065638066</v>
+        <f>(8*PI()*$H$3*B3)/($G$3^2)</f>
+        <v>1.5292972806706458E+41</v>
       </c>
       <c r="C21" s="1">
-        <f>C15</f>
-        <v>9.3986559538874257</v>
+        <f>(8*PI()*$H$3*C3)/($G$3^2)</f>
+        <v>1.1063102498618966E+42</v>
       </c>
       <c r="D21" s="1">
-        <f>PRODUCT(D15:D20)</f>
-        <v>44520934.35860578</v>
+        <f>(8*PI()*$H$3*D3)/($G$3^2)</f>
+        <v>5.7852486276532947E+42</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1">
-        <f>(8*PI()*$H$3*B3)/($G$3^2)</f>
-        <v>1.5292972806706456E+45</v>
+        <f>B21*B20*B13*B12</f>
+        <v>1.0361983738407131E+74</v>
       </c>
       <c r="C22" s="1">
-        <f>(8*PI()*$H$3*C3)/($G$3^2)</f>
-        <v>1.1063102498618965E+46</v>
+        <f t="shared" ref="C22:D22" si="4">C21*C20*C13*C12</f>
+        <v>1.4515341200523731E+75</v>
       </c>
       <c r="D22" s="1">
-        <f>(8*PI()*$H$3*D3)/($G$3^2)</f>
-        <v>5.7852486276532958E+46</v>
+        <f t="shared" si="4"/>
+        <v>4.6374535085923562E+82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <f>(H3*K3)/(G3)</f>
+        <v>6209310443087.3164</v>
+      </c>
+      <c r="C24" s="1">
+        <f>D22/(B22*C22)</f>
+        <v>3.0832547799968967E-67</v>
+      </c>
+      <c r="D24">
+        <f>EXP(-D4/(H3*K3))</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
